--- a/results/SUN.xlsx
+++ b/results/SUN.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P130"/>
+  <dimension ref="A1:P168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6757,6 +6757,1826 @@
       </c>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>79</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>0.2308101803064346</v>
+      </c>
+      <c r="E131" t="n">
+        <v>32.50060089445635</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>32.50060089445635</v>
+      </c>
+      <c r="H131" t="n">
+        <v>52</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-9.000028272644476</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>113</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>0.2399929165840149</v>
+      </c>
+      <c r="E132" t="n">
+        <v>22.90386008588784</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>30.72505229841052</v>
+      </c>
+      <c r="H132" t="n">
+        <v>31</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>7.821192212522686</v>
+      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>239</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>0.4331725537776947</v>
+      </c>
+      <c r="E133" t="n">
+        <v>76.70326213690825</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>76.70326213690825</v>
+      </c>
+      <c r="H133" t="n">
+        <v>49</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-2.439012114102533</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>366</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>0.7412229180335999</v>
+      </c>
+      <c r="E134" t="n">
+        <v>30.85327136314551</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>33.13399525252262</v>
+      </c>
+      <c r="H134" t="n">
+        <v>43</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-9.895858337038405</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>2.280723889377104</v>
+      </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>574</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>2.063148736953736</v>
+      </c>
+      <c r="E135" t="n">
+        <v>10.09824610303861</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>11.10486963649745</v>
+      </c>
+      <c r="H135" t="n">
+        <v>52</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-10.39404003634665</v>
+      </c>
+      <c r="J135" t="n">
+        <v>31</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>24</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-1.225646627660384</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1.006623533458848</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-11.32389273069899</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-12.33051626415784</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>600</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>2.058037996292114</v>
+      </c>
+      <c r="E136" t="n">
+        <v>46.25224613842596</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>48.20680268502354</v>
+      </c>
+      <c r="H136" t="n">
+        <v>51</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-10.17152090699386</v>
+      </c>
+      <c r="J136" t="n">
+        <v>5</v>
+      </c>
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1.95455654659758</v>
+      </c>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>620</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>2.146883726119995</v>
+      </c>
+      <c r="E137" t="n">
+        <v>76.95872247807057</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>84.37743963566771</v>
+      </c>
+      <c r="H137" t="n">
+        <v>52</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-1.451027498943358</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>7.418717157597143</v>
+      </c>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>648</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>2.870872974395752</v>
+      </c>
+      <c r="E138" t="n">
+        <v>35.87426588161392</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>46.24727471365818</v>
+      </c>
+      <c r="H138" t="n">
+        <v>33</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-3.869355522126926</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>49</v>
+      </c>
+      <c r="M138" t="n">
+        <v>25.62324178241677</v>
+      </c>
+      <c r="N138" t="n">
+        <v>10.37300883204426</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-10.25102409919715</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-20.62403293124141</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>700</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>3.900777578353882</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-17.23469775497864</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>10.85691645867717</v>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-21.16881956997481</v>
+      </c>
+      <c r="J139" t="n">
+        <v>51</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>8</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.302471657223404</v>
+      </c>
+      <c r="N139" t="n">
+        <v>28.09161421365582</v>
+      </c>
+      <c r="O139" t="n">
+        <v>18.53716941220204</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-9.554444801453771</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>776</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>3.402867078781128</v>
+      </c>
+      <c r="E140" t="n">
+        <v>27.23109267866625</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>37.21951880164726</v>
+      </c>
+      <c r="H140" t="n">
+        <v>43</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-2.620065545256682</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>9</v>
+      </c>
+      <c r="M140" t="n">
+        <v>3.755495034246947</v>
+      </c>
+      <c r="N140" t="n">
+        <v>9.988426122981011</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-23.4755976444193</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-33.46402376740031</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>804</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>4.01805591583252</v>
+      </c>
+      <c r="E141" t="n">
+        <v>40.19693171782168</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>42.66626044090936</v>
+      </c>
+      <c r="H141" t="n">
+        <v>48</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-7.497918739416237</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>2.469328723087678</v>
+      </c>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>819</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>4.669397830963135</v>
+      </c>
+      <c r="E142" t="n">
+        <v>41.35054430271035</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>42.89230761200887</v>
+      </c>
+      <c r="H142" t="n">
+        <v>52</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-13.08253347994492</v>
+      </c>
+      <c r="J142" t="n">
+        <v>5</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>1.541763309298524</v>
+      </c>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>891</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>7.019073009490967</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.49857374931072</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>12.47807132112579</v>
+      </c>
+      <c r="H143" t="n">
+        <v>22</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-9.090908601762862</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>6</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-5.630628075436905</v>
+      </c>
+      <c r="N143" t="n">
+        <v>10.97949757181507</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-7.129201824747625</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-18.10869939656269</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>904</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>6.946718692779541</v>
+      </c>
+      <c r="E144" t="n">
+        <v>7.920327148110713</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>23.21777872587376</v>
+      </c>
+      <c r="H144" t="n">
+        <v>46</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-5.372513023749651</v>
+      </c>
+      <c r="J144" t="n">
+        <v>29</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>19</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-0.4109669436946252</v>
+      </c>
+      <c r="N144" t="n">
+        <v>15.29745157776305</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-8.331294091805338</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-23.62874566956839</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>913</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>7.505648136138916</v>
+      </c>
+      <c r="E145" t="n">
+        <v>12.42529058030931</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>14.04201625659024</v>
+      </c>
+      <c r="H145" t="n">
+        <v>37</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-12.41921807344041</v>
+      </c>
+      <c r="J145" t="n">
+        <v>20</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>10</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-7.827147638716342</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1.616725676280932</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-20.25243821902565</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-21.86916389530658</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>945</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>7.468924999237059</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.2810232802167779</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>14.60273691933386</v>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-13.69180399923447</v>
+      </c>
+      <c r="J146" t="n">
+        <v>49</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>46</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-2.110815667868229</v>
+      </c>
+      <c r="N146" t="n">
+        <v>14.32171363911708</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-2.391838948085007</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-16.71355258720209</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>5.940153121948242</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-47.9756978259676</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>39.73154622433994</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-63.93864028345263</v>
+      </c>
+      <c r="J147" t="n">
+        <v>39</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>8</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-22.61744100135148</v>
+      </c>
+      <c r="N147" t="n">
+        <v>87.70724405030754</v>
+      </c>
+      <c r="O147" t="n">
+        <v>25.35825682461612</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-62.34898722569143</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>3.321236610412598</v>
+      </c>
+      <c r="E148" t="n">
+        <v>29.00325880118958</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>45.55829253552439</v>
+      </c>
+      <c r="H148" t="n">
+        <v>19</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-11.09466296641285</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>27</v>
+      </c>
+      <c r="M148" t="n">
+        <v>26.58561826054272</v>
+      </c>
+      <c r="N148" t="n">
+        <v>16.55503373433481</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-2.417640540646861</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-18.97267427498167</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1157</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>4.6104416847229</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-4.973617710662453</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>11.28848752646791</v>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-30.02377267258413</v>
+      </c>
+      <c r="J149" t="n">
+        <v>45</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>24</v>
+      </c>
+      <c r="M149" t="n">
+        <v>-7.742772963379002</v>
+      </c>
+      <c r="N149" t="n">
+        <v>16.26210523713036</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-2.769155252716549</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-19.03126048984691</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1251</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>4.759914398193359</v>
+      </c>
+      <c r="E150" t="n">
+        <v>55.85828024584403</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>62.88569944450732</v>
+      </c>
+      <c r="H150" t="n">
+        <v>41</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-3.546108012143226</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>7.027419198663289</v>
+      </c>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1258</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>5.216540336608887</v>
+      </c>
+      <c r="E151" t="n">
+        <v>49.76489682974527</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>50.598905887435</v>
+      </c>
+      <c r="H151" t="n">
+        <v>52</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-0.3363263566414739</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>51</v>
+      </c>
+      <c r="M151" t="n">
+        <v>41.1847920059072</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.8340090576897268</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-8.58010482383807</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-9.414113881527797</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1321</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>8.421638488769531</v>
+      </c>
+      <c r="E152" t="n">
+        <v>14.68274189851618</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>19.93174501613097</v>
+      </c>
+      <c r="H152" t="n">
+        <v>51</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-13.0626947958314</v>
+      </c>
+      <c r="J152" t="n">
+        <v>11</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>11</v>
+      </c>
+      <c r="M152" t="n">
+        <v>-11.29148129123669</v>
+      </c>
+      <c r="N152" t="n">
+        <v>5.249003117614791</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-25.97422318975287</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-31.22322630736766</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1344</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>8.307676315307617</v>
+      </c>
+      <c r="E153" t="n">
+        <v>8.010522050273039</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>21.57693216719203</v>
+      </c>
+      <c r="H153" t="n">
+        <v>28</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-0.615386928487124</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>52</v>
+      </c>
+      <c r="M153" t="n">
+        <v>8.010522050273039</v>
+      </c>
+      <c r="N153" t="n">
+        <v>13.56641011691899</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-13.56641011691899</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>9.818909645080566</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.5091554645244931</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2.941173873344038</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-26.64762431319492</v>
+      </c>
+      <c r="J154" t="n">
+        <v>27</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>19</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-16.70766529462825</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2.432018408819545</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-17.21682075915274</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-19.64883916797228</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1449</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>9.144647598266602</v>
+      </c>
+      <c r="E155" t="n">
+        <v>19.59537830260913</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>20.60747945164784</v>
+      </c>
+      <c r="H155" t="n">
+        <v>52</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-7.599994175953821</v>
+      </c>
+      <c r="J155" t="n">
+        <v>8</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>48</v>
+      </c>
+      <c r="M155" t="n">
+        <v>9.811856636108283</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1.01210114903871</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-9.783521666500848</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-10.79562281553956</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>10.64349460601807</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5.705768184670364</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>10.43478622123624</v>
+      </c>
+      <c r="H156" t="n">
+        <v>11</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-7.318848429288193</v>
+      </c>
+      <c r="J156" t="n">
+        <v>16</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>41</v>
+      </c>
+      <c r="M156" t="n">
+        <v>-1.21645841907088</v>
+      </c>
+      <c r="N156" t="n">
+        <v>4.729018036565878</v>
+      </c>
+      <c r="O156" t="n">
+        <v>-6.922226603741244</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-11.65124464030712</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1509</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>11.43018817901611</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.98992242325073</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>5.985607175800702</v>
+      </c>
+      <c r="H157" t="n">
+        <v>52</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-13.69771683782324</v>
+      </c>
+      <c r="J157" t="n">
+        <v>7</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>32</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-8.015329624215939</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1.995684752549971</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-12.00525204746667</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-14.00093680001664</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1533</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>11.16568374633789</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-1.965977648916969</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>17.72366139598881</v>
+      </c>
+      <c r="H158" t="n">
+        <v>37</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-10.24911421631915</v>
+      </c>
+      <c r="J158" t="n">
+        <v>9</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>8</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-5.836300233309202</v>
+      </c>
+      <c r="N158" t="n">
+        <v>19.68963904490577</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-3.870322584392233</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-23.55996162929801</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1554</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>11.31596374511719</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.19114067769413</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>16.16024955680565</v>
+      </c>
+      <c r="H159" t="n">
+        <v>16</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-9.954463689221644</v>
+      </c>
+      <c r="J159" t="n">
+        <v>36</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>28</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.2239658550464332</v>
+      </c>
+      <c r="N159" t="n">
+        <v>11.96910887911152</v>
+      </c>
+      <c r="O159" t="n">
+        <v>-3.967174822647697</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-15.93628370175922</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1608</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>11.98860263824463</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-34.90093955426318</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4.218854717852537</v>
+      </c>
+      <c r="H160" t="n">
+        <v>20</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-44.61267771516047</v>
+      </c>
+      <c r="J160" t="n">
+        <v>44</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>11</v>
+      </c>
+      <c r="M160" t="n">
+        <v>-0.7194040296521484</v>
+      </c>
+      <c r="N160" t="n">
+        <v>39.11979427211572</v>
+      </c>
+      <c r="O160" t="n">
+        <v>34.18153552461104</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-4.938258747504685</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1694</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>9.577610015869141</v>
+      </c>
+      <c r="E161" t="n">
+        <v>18.59992559882392</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>32.60697050274649</v>
+      </c>
+      <c r="H161" t="n">
+        <v>34</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-7.19770197237429</v>
+      </c>
+      <c r="J161" t="n">
+        <v>5</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>41</v>
+      </c>
+      <c r="M161" t="n">
+        <v>19.82680816166563</v>
+      </c>
+      <c r="N161" t="n">
+        <v>14.00704490392257</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1.226882562841709</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-12.78016234108086</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1698</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>9.669523239135742</v>
+      </c>
+      <c r="E162" t="n">
+        <v>21.82715058244068</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>31.34648084000941</v>
+      </c>
+      <c r="H162" t="n">
+        <v>30</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-8.079830090516053</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>37</v>
+      </c>
+      <c r="M162" t="n">
+        <v>18.6877997638874</v>
+      </c>
+      <c r="N162" t="n">
+        <v>9.519330257568726</v>
+      </c>
+      <c r="O162" t="n">
+        <v>-3.139350818553282</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-12.65868107612201</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1711</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>9.697797775268556</v>
+      </c>
+      <c r="E163" t="n">
+        <v>21.98668328993619</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>30.96353195774876</v>
+      </c>
+      <c r="H163" t="n">
+        <v>17</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-1.068987205258987</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>24</v>
+      </c>
+      <c r="M163" t="n">
+        <v>18.34175805826363</v>
+      </c>
+      <c r="N163" t="n">
+        <v>8.976848667812572</v>
+      </c>
+      <c r="O163" t="n">
+        <v>-3.644925231672559</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-12.62177389948513</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1799</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>12.51271343231201</v>
+      </c>
+      <c r="E164" t="n">
+        <v>19.54653359684909</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>21.07264128744403</v>
+      </c>
+      <c r="H164" t="n">
+        <v>34</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-4.858301750412183</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>40</v>
+      </c>
+      <c r="M164" t="n">
+        <v>13.35723378878491</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1.526107690594937</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-6.189299808064185</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-7.715407498659122</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1821</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>14.01304340362549</v>
+      </c>
+      <c r="E165" t="n">
+        <v>29.80829048232169</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>30.50493478961782</v>
+      </c>
+      <c r="H165" t="n">
+        <v>52</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-4.080118981809868</v>
+      </c>
+      <c r="J165" t="n">
+        <v>8</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>18</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1.220451619502468</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.696644307296129</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-28.58783886281922</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-29.28448317011535</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1852</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>15.13886451721191</v>
+      </c>
+      <c r="E166" t="n">
+        <v>48.42420901774887</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>49.89302320597222</v>
+      </c>
+      <c r="H166" t="n">
+        <v>52</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-2.873160589405163</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>1.468814188223348</v>
+      </c>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1882</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>18.98190879821777</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12.31948956524961</v>
+      </c>
+      <c r="F167" t="b">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>25.93031750648931</v>
+      </c>
+      <c r="H167" t="n">
+        <v>25</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-9.300204589211736</v>
+      </c>
+      <c r="J167" t="n">
+        <v>33</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>33</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-2.917246575985259</v>
+      </c>
+      <c r="N167" t="n">
+        <v>13.6108279412397</v>
+      </c>
+      <c r="O167" t="n">
+        <v>-15.23673614123487</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-28.84756408247457</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>20.73531150817871</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-5.909297667476888</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>15.28149943134122</v>
+      </c>
+      <c r="H168" t="n">
+        <v>14</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-16.9698876322396</v>
+      </c>
+      <c r="J168" t="n">
+        <v>22</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>22</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-11.12668017320874</v>
+      </c>
+      <c r="N168" t="n">
+        <v>21.19079709881811</v>
+      </c>
+      <c r="O168" t="n">
+        <v>-5.21738250573185</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-26.40817960454996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6769,7 +8589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6982,40 +8802,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>84.21052631578947</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.78714151021353</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19.07322959783651</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25.92223778346573</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29.68994011855141</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-11.29712757696627</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.90279860833788</v>
+      </c>
+      <c r="J4" t="n">
+        <v>73.68421052631578</v>
+      </c>
+      <c r="K4" t="n">
+        <v>26.64285714285714</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-5.691907817594283</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>77.2</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>17.0761447608205</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>16.38262921570505</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>25.80018956077035</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>28.47229906978745</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-11.21956005013701</v>
       </c>
     </row>
